--- a/AgileCodeGen/ExcelSqlCodeGen.xlsx
+++ b/AgileCodeGen/ExcelSqlCodeGen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dm_78\Source\Repos\ExcelCodeGeneration\ExcelCodeGen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dm_78\Source\Repos\AgileCodeGeneration\AgileCodeGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C2346B-188B-45D6-ABB6-9D8B35C0422F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8342491-E026-45FB-97D7-9B5A91550384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76008577-2001-4285-8564-779E7F50D205}"/>
   </bookViews>
@@ -505,9 +505,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB43037B-137F-4604-8A48-4B0DEAF16A95}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -740,9 +743,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA42A8B6-923D-4FAF-BD3A-FD33BAA56A4C}">
+  <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -891,6 +897,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64E8D3E-9EBC-42D8-A9A6-63D9C07F7143}">
+  <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/AgileCodeGen/ExcelSqlCodeGen.xlsx
+++ b/AgileCodeGen/ExcelSqlCodeGen.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dm_78\Source\Repos\AgileCodeGeneration\AgileCodeGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8342491-E026-45FB-97D7-9B5A91550384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816209AA-B335-4855-8D08-552DB09F74D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76008577-2001-4285-8564-779E7F50D205}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{76008577-2001-4285-8564-779E7F50D205}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables-Model" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL-Code - Add new custom field" sheetId="2" r:id="rId2"/>
-    <sheet name="SQL-Code - Drop custom field" sheetId="3" r:id="rId3"/>
+    <sheet name="CodeGen-AddColumn" sheetId="2" r:id="rId2"/>
+    <sheet name="CodeGen-DeleteColumn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -508,7 +508,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -746,7 +746,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
